--- a/data/hotels_by_city/Houston/Houston_shard_600.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_600.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d7175858-Reviews-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Staybridge-Suites-Houston-I-10-West-Beltway-8.h8467453.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,556 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r598711411-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7175858</t>
+  </si>
+  <si>
+    <t>598711411</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Clean Rooms, Attentive Staff</t>
+  </si>
+  <si>
+    <t>The weekend my husband and I stayed at this location, it was sort of a mini-staycation of sorts to getaway to recoup and explore. This hotel is decently sized and the facility is very well kept from what we could see upon arriving. 
+Both the rooms we stayed in were comfortable, however the second room we were in (we requested to be moved due to the other guests impoliteness) smelled like a hobo had been lounging around. More so around the kitchen sink area but if you turned the air off the smell would permeate the room. Maybe there was a leak some where that left mold or mildew? Or perhaps the air conditioning unit needed to be maintained. Either way, I did share this with the front desk and I got the feeling they'd look into the room and fix it up promptly so I hope that  was the case.
+While the majority of the guests that were staying with us in the hotel were silent there were a few rowdy and impolite guests. Specifically at night when the pool hours clearly indicated no one should be using the area. Which by the way is relatively small, considering the amount of rooms available and the capacity there should be another pool available. 
+Breakfast the first morning was disgusting. I hate to say it but it tasted and looked like literal wet dog food. I'm not sure what they were...The weekend my husband and I stayed at this location, it was sort of a mini-staycation of sorts to getaway to recoup and explore. This hotel is decently sized and the facility is very well kept from what we could see upon arriving. Both the rooms we stayed in were comfortable, however the second room we were in (we requested to be moved due to the other guests impoliteness) smelled like a hobo had been lounging around. More so around the kitchen sink area but if you turned the air off the smell would permeate the room. Maybe there was a leak some where that left mold or mildew? Or perhaps the air conditioning unit needed to be maintained. Either way, I did share this with the front desk and I got the feeling they'd look into the room and fix it up promptly so I hope that  was the case.While the majority of the guests that were staying with us in the hotel were silent there were a few rowdy and impolite guests. Specifically at night when the pool hours clearly indicated no one should be using the area. Which by the way is relatively small, considering the amount of rooms available and the capacity there should be another pool available. Breakfast the first morning was disgusting. I hate to say it but it tasted and looked like literal wet dog food. I'm not sure what they were going for in terms of their hashbrown mix but it left a lot to be desired. The second day the options available were more palatable and appreciated. We didn't get to use the pool as we had hoped. This was partly due to the fact that every time we considered going there were too many folks swimming in such a small pool area. The only issue we truly had aside from the rude guests that were sharing the space with us was the fact that on the first night when we were awoken to kids screaming and shouting. We were told some nonsense about them being a part of a little league team. Which is great and all but the fact remains we were also paying customers and the time for these children to be out of the pool had come and gone. We should not have been met with any sort of hostility when asking for something to be done regarding the noise by the front desk. Otherwise, the majority of the staff were friendly and approachable. Some not so much but they still did their jobs which is all we could ask for and was appreciated. If you're planning on checking out the area, please be advised you will need to drive twenty plus minutes in either direction to get to anything and most of the options available are not all that enticing. Probably a better fit for people passing through the area given the experience I had.I give this location a 3.5 rating seeing as the location itself is kept up and the staff (even the few who might be disgruntled) did their best to keep the peace and help keep our stay decently comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The weekend my husband and I stayed at this location, it was sort of a mini-staycation of sorts to getaway to recoup and explore. This hotel is decently sized and the facility is very well kept from what we could see upon arriving. 
+Both the rooms we stayed in were comfortable, however the second room we were in (we requested to be moved due to the other guests impoliteness) smelled like a hobo had been lounging around. More so around the kitchen sink area but if you turned the air off the smell would permeate the room. Maybe there was a leak some where that left mold or mildew? Or perhaps the air conditioning unit needed to be maintained. Either way, I did share this with the front desk and I got the feeling they'd look into the room and fix it up promptly so I hope that  was the case.
+While the majority of the guests that were staying with us in the hotel were silent there were a few rowdy and impolite guests. Specifically at night when the pool hours clearly indicated no one should be using the area. Which by the way is relatively small, considering the amount of rooms available and the capacity there should be another pool available. 
+Breakfast the first morning was disgusting. I hate to say it but it tasted and looked like literal wet dog food. I'm not sure what they were...The weekend my husband and I stayed at this location, it was sort of a mini-staycation of sorts to getaway to recoup and explore. This hotel is decently sized and the facility is very well kept from what we could see upon arriving. Both the rooms we stayed in were comfortable, however the second room we were in (we requested to be moved due to the other guests impoliteness) smelled like a hobo had been lounging around. More so around the kitchen sink area but if you turned the air off the smell would permeate the room. Maybe there was a leak some where that left mold or mildew? Or perhaps the air conditioning unit needed to be maintained. Either way, I did share this with the front desk and I got the feeling they'd look into the room and fix it up promptly so I hope that  was the case.While the majority of the guests that were staying with us in the hotel were silent there were a few rowdy and impolite guests. Specifically at night when the pool hours clearly indicated no one should be using the area. Which by the way is relatively small, considering the amount of rooms available and the capacity there should be another pool available. Breakfast the first morning was disgusting. I hate to say it but it tasted and looked like literal wet dog food. I'm not sure what they were going for in terms of their hashbrown mix but it left a lot to be desired. The second day the options available were more palatable and appreciated. We didn't get to use the pool as we had hoped. This was partly due to the fact that every time we considered going there were too many folks swimming in such a small pool area. The only issue we truly had aside from the rude guests that were sharing the space with us was the fact that on the first night when we were awoken to kids screaming and shouting. We were told some nonsense about them being a part of a little league team. Which is great and all but the fact remains we were also paying customers and the time for these children to be out of the pool had come and gone. We should not have been met with any sort of hostility when asking for something to be done regarding the noise by the front desk. Otherwise, the majority of the staff were friendly and approachable. Some not so much but they still did their jobs which is all we could ask for and was appreciated. If you're planning on checking out the area, please be advised you will need to drive twenty plus minutes in either direction to get to anything and most of the options available are not all that enticing. Probably a better fit for people passing through the area given the experience I had.I give this location a 3.5 rating seeing as the location itself is kept up and the staff (even the few who might be disgruntled) did their best to keep the peace and help keep our stay decently comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r577526721-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577526721</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>I'll be back</t>
+  </si>
+  <si>
+    <t>From the well lit parking lot to the convenient location to the rad staff and friendly vibe, Staybridge made my stay easy which was appreciated after such a long drive. Will for sure be back, y'all can't stop me!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r575593070-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575593070</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Great hotel for business travelers</t>
+  </si>
+  <si>
+    <t>This was a nice hotel right off of the Sam Houston Expressway in Houston. We had been on the road a few days and the amenities that the hotel provided were just what we needed. The staff checked us in just fine and the rooms were large and newly renovated. The rooms have a kitchenette with a fridge and a coffee maker. There was free laundry and free breakfast in the morning. Because this was an extended stay hotel, they have free dinner on some week nights, but we were coming in on a Saturday. We were treated great by the staff. This is a nice, safe hotel, especially tailored to business travelers. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice hotel right off of the Sam Houston Expressway in Houston. We had been on the road a few days and the amenities that the hotel provided were just what we needed. The staff checked us in just fine and the rooms were large and newly renovated. The rooms have a kitchenette with a fridge and a coffee maker. There was free laundry and free breakfast in the morning. Because this was an extended stay hotel, they have free dinner on some week nights, but we were coming in on a Saturday. We were treated great by the staff. This is a nice, safe hotel, especially tailored to business travelers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r547953538-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547953538</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>It's not often I'm impressed with a hotel room</t>
+  </si>
+  <si>
+    <t>Room was absolutely perfect. The kitchen that came with it was more handy than I ever imagined. Big bathroom, free snacks, and a switch on the wall by the door that would shut off everything as you left. Always impressed with hotel that goes out of it's way to stay green. Breakfast shuts off a little early, but also good enough to rouse you out of bed a little earlier than normal and get your day startedAlso a great little Vietnamese restaurant nearby</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r546242503-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546242503</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Felt right at home at Staybridge Suites!</t>
+  </si>
+  <si>
+    <t>Staybridge Suites was an incredibly cozy and inviting experience. The hotel is set up for long term stays so it really makes you wish for a much longer stay than one night. Being a touring musician who stays in a lot of hotel rooms on tour, there are things I often look for in a hotel room.  The first one is the cleanliness of the shower. This shower was spic and span and ROOMY.  I always appreciate when a hotel has a separate sink area from the toilet part too.  The beds weren't too soft - a good firmness and there was a variety of pillow choices on each bed. Also, a living room suite separate from the bedroom where my partner and I could watch different tv shows. All in all, the room was very clean, cozy and made me feel at home. I only wish we could've stayed longer!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staybridge Suites was an incredibly cozy and inviting experience. The hotel is set up for long term stays so it really makes you wish for a much longer stay than one night. Being a touring musician who stays in a lot of hotel rooms on tour, there are things I often look for in a hotel room.  The first one is the cleanliness of the shower. This shower was spic and span and ROOMY.  I always appreciate when a hotel has a separate sink area from the toilet part too.  The beds weren't too soft - a good firmness and there was a variety of pillow choices on each bed. Also, a living room suite separate from the bedroom where my partner and I could watch different tv shows. All in all, the room was very clean, cozy and made me feel at home. I only wish we could've stayed longer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r543457788-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543457788</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Made my trip to Houston a breeze!</t>
+  </si>
+  <si>
+    <t>Absolutely loved my stay at this hotel! Room was spacious and super accommodating. I was in Houston for a 5 days for a comedy festival, so having a full fridge and kitchen was great. The outside patio and pool area were great for hanging out during the day. Hotel is close to multiple grocery stores and lots of late night food (I highly recommend Taqueria Cancun Restaurant). Easy access to the I-10 made getting to and from downtown Houston quick. Will definitely stay here again next time I visit Houston.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r528359277-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528359277</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Doesn't get any better than here!!</t>
+  </si>
+  <si>
+    <t>what a great place?!?!?!?! The staff makes you feel at home by being so friendly. The complimentary breakfast is phenomenal. They really go above and beyond to make sure they have a little bit of everything. It is very good and fresh! There is an office center that is very clean and the computers are very easy to use without any logins. Property is very clean! Staff works very hard and you can tell they love their jobs. The location is very convenient. Freeway entrances nearby.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r514993375-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514993375</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Lovely hotel</t>
+  </si>
+  <si>
+    <t>The staff was incredibly friendly and helpful upon arrival and the whole entire stay. The hotel and room itself was very clean, beautiful, and comfortable. Also the location was good as well, there's a shopping center near by and a good amount of restaurants a short drive away. However the hotel serves breakfast, and dinner for free which is great for families and for people looking to stay in and save some cash. They also have a 24 hour pantry with snacks, microwaveable food, and other small things you may need. The pool and hot tub were clean and a decent size, the outside area also has lounge chairs and a fire pit to relax outside and they also have grills and even darts. Also, they have a small fitness center for those 
+who want to get a quick workout in.
+With all of those positives we only had one negative experience that didn't ruin our stay but definitely made us a little upset regarding the 24 hour pantry. 
+We had been going to the pantry later at night for small snacks. Each night we'd get the same things, so we already knew how much the total was going to come out to.
+The last night of our stay we went down to grab snacks, a different younger lady in a blue collared shirt was in the front instead of the normal few people we had normally seen, she was...The staff was incredibly friendly and helpful upon arrival and the whole entire stay. The hotel and room itself was very clean, beautiful, and comfortable. Also the location was good as well, there's a shopping center near by and a good amount of restaurants a short drive away. However the hotel serves breakfast, and dinner for free which is great for families and for people looking to stay in and save some cash. They also have a 24 hour pantry with snacks, microwaveable food, and other small things you may need. The pool and hot tub were clean and a decent size, the outside area also has lounge chairs and a fire pit to relax outside and they also have grills and even darts. Also, they have a small fitness center for those who want to get a quick workout in.With all of those positives we only had one negative experience that didn't ruin our stay but definitely made us a little upset regarding the 24 hour pantry. We had been going to the pantry later at night for small snacks. Each night we'd get the same things, so we already knew how much the total was going to come out to.The last night of our stay we went down to grab snacks, a different younger lady in a blue collared shirt was in the front instead of the normal few people we had normally seen, she was not very polite so again since we got the same items we knew the cost and we had the money ready to pay.  She took a few minutes "ringing things up" which was different from what we were used to, since the other employees knew the prices of everything and looked at what we had and let us know the price. So after she rang up the items and it came out to be $6.50 more expensive than the other nights before with the same exact items and the same quantity of items. We didn't want to argue as it was late and we were tired so we did not say anything and went back to our room. Again it was only one issue and is the only reason I didn't rate 5 stars, but other than that I definitely recommend staying at this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>The staff was incredibly friendly and helpful upon arrival and the whole entire stay. The hotel and room itself was very clean, beautiful, and comfortable. Also the location was good as well, there's a shopping center near by and a good amount of restaurants a short drive away. However the hotel serves breakfast, and dinner for free which is great for families and for people looking to stay in and save some cash. They also have a 24 hour pantry with snacks, microwaveable food, and other small things you may need. The pool and hot tub were clean and a decent size, the outside area also has lounge chairs and a fire pit to relax outside and they also have grills and even darts. Also, they have a small fitness center for those 
+who want to get a quick workout in.
+With all of those positives we only had one negative experience that didn't ruin our stay but definitely made us a little upset regarding the 24 hour pantry. 
+We had been going to the pantry later at night for small snacks. Each night we'd get the same things, so we already knew how much the total was going to come out to.
+The last night of our stay we went down to grab snacks, a different younger lady in a blue collared shirt was in the front instead of the normal few people we had normally seen, she was...The staff was incredibly friendly and helpful upon arrival and the whole entire stay. The hotel and room itself was very clean, beautiful, and comfortable. Also the location was good as well, there's a shopping center near by and a good amount of restaurants a short drive away. However the hotel serves breakfast, and dinner for free which is great for families and for people looking to stay in and save some cash. They also have a 24 hour pantry with snacks, microwaveable food, and other small things you may need. The pool and hot tub were clean and a decent size, the outside area also has lounge chairs and a fire pit to relax outside and they also have grills and even darts. Also, they have a small fitness center for those who want to get a quick workout in.With all of those positives we only had one negative experience that didn't ruin our stay but definitely made us a little upset regarding the 24 hour pantry. We had been going to the pantry later at night for small snacks. Each night we'd get the same things, so we already knew how much the total was going to come out to.The last night of our stay we went down to grab snacks, a different younger lady in a blue collared shirt was in the front instead of the normal few people we had normally seen, she was not very polite so again since we got the same items we knew the cost and we had the money ready to pay.  She took a few minutes "ringing things up" which was different from what we were used to, since the other employees knew the prices of everything and looked at what we had and let us know the price. So after she rang up the items and it came out to be $6.50 more expensive than the other nights before with the same exact items and the same quantity of items. We didn't want to argue as it was late and we were tired so we did not say anything and went back to our room. Again it was only one issue and is the only reason I didn't rate 5 stars, but other than that I definitely recommend staying at this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r504659958-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504659958</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Reservations mean nothing here</t>
+  </si>
+  <si>
+    <t>Reserved a room with two queens.  Got in and they said, "Sorry, we gave your room away and downgraded you to one bed and a couch that pulls out (which was barely bigger than a twin).  Oh, but we're going to give you a great rate at $89 and give you 500 points."I looked up the room they gave us.  It's usually $87 on the weekend.  And thanks for the points we'll never use.  They never even apologized and acted like we should be grateful we got something.Finally get to our room.  Our phone doesn't work and there are no sheets so we had to go down and get them.  We got in tired at 10 pm with two kids and had to wait so we could make our own frickin' beds.  Bottom line, why bother reserving a room in advance because they'll just give it away.  Will never stay here again.  Pretty crappy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Reserved a room with two queens.  Got in and they said, "Sorry, we gave your room away and downgraded you to one bed and a couch that pulls out (which was barely bigger than a twin).  Oh, but we're going to give you a great rate at $89 and give you 500 points."I looked up the room they gave us.  It's usually $87 on the weekend.  And thanks for the points we'll never use.  They never even apologized and acted like we should be grateful we got something.Finally get to our room.  Our phone doesn't work and there are no sheets so we had to go down and get them.  We got in tired at 10 pm with two kids and had to wait so we could make our own frickin' beds.  Bottom line, why bother reserving a room in advance because they'll just give it away.  Will never stay here again.  Pretty crappy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r471240765-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471240765</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Home Feel Stay</t>
+  </si>
+  <si>
+    <t>Date of stay:  March 24th through 26th
+Room type:  Studio Suite 1 King Non-smooking
+Floor location:  Third floor 
+This was my first time staying at this Staybridge location and it will not be my last!  I have a lot of positive things to say about this hotel and took lots of photos to share with everyone.  The reason why I took so many photos was because when I was booking my room I was a little disappointed to only see 2 to 3 room views.  I wanted to ensure to provide everyone with a detailed view of the Studio Suite 1 King Non-smooking room.
+Location:  This hotel is centrally located off Beltway 8 between Hwy 290 and I-10.  It is literally equal distance to either major roadway and Gessner is just down the street.  You have plenty of options when you are ready to hit the road and explore Houston.
+Exterior/security:  I was very pleased to see adequate parking at this location.  Nearly everyone that was staying at the hotel was able to park in the front.  All parking areas are well lighted and I noticed a security guard parked in the back of the hotel on Saturday night.   
+Front Desk/Lobby area:  The front desk is located to the left of the front entrance.  The lobby has lots of seating, a fireplace and buffet area.  I was informed of the free morning buffet, but did not tend to it.  
+Room:...Date of stay:  March 24th through 26thRoom type:  Studio Suite 1 King Non-smookingFloor location:  Third floor This was my first time staying at this Staybridge location and it will not be my last!  I have a lot of positive things to say about this hotel and took lots of photos to share with everyone.  The reason why I took so many photos was because when I was booking my room I was a little disappointed to only see 2 to 3 room views.  I wanted to ensure to provide everyone with a detailed view of the Studio Suite 1 King Non-smooking room.Location:  This hotel is centrally located off Beltway 8 between Hwy 290 and I-10.  It is literally equal distance to either major roadway and Gessner is just down the street.  You have plenty of options when you are ready to hit the road and explore Houston.Exterior/security:  I was very pleased to see adequate parking at this location.  Nearly everyone that was staying at the hotel was able to park in the front.  All parking areas are well lighted and I noticed a security guard parked in the back of the hotel on Saturday night.   Front Desk/Lobby area:  The front desk is located to the left of the front entrance.  The lobby has lots of seating, a fireplace and buffet area.  I was informed of the free morning buffet, but did not tend to it.  Room:  I have to give this hotel lots of kudos for the overall cleanliness of the hotel exterior, lobby area and room.  I did not notice any dust or anything "out of place" during my stay.  The room was very well maintained by the staff and they should be commended for that.  Upon entering the room the kitchen area is located to the left hand side.  You have a dishwasher, sink area, pantry, refrigerator and small stove.  The pantry has dishes for you to use and the refrigerator has a drinking container.  The seating area is the the right hand side of the room and the bed is against the rear left hand side of the room.  My room had four pillows and was very nice and plush.  The bathroom is located to the left hand side of the bedding area.  As odd as this may sound the only feedback that I have is that this room type seemed to have too many items crammed inside of it.  That may seem like an odd comment, but there is literally no vacant area that will leave you thinking, "Something is missing here."  Perhaps all the furnishings are a bit more dispersed in a larger sized room, which I will soon find out, but this room type seemed a little crammed.  Bathroom:  You will be provided with the standard amenities of shampoo, conditioner, body lotion and body wash.  My room had three bath towels, floor mat and approximately four to five smaller sized towels for bathing and etc.  Pro's:  Location, hotel cleanliness and little to no noise level.  Con's:  Room type may appear to be crammed with furnishings, but it grows on you.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Date of stay:  March 24th through 26th
+Room type:  Studio Suite 1 King Non-smooking
+Floor location:  Third floor 
+This was my first time staying at this Staybridge location and it will not be my last!  I have a lot of positive things to say about this hotel and took lots of photos to share with everyone.  The reason why I took so many photos was because when I was booking my room I was a little disappointed to only see 2 to 3 room views.  I wanted to ensure to provide everyone with a detailed view of the Studio Suite 1 King Non-smooking room.
+Location:  This hotel is centrally located off Beltway 8 between Hwy 290 and I-10.  It is literally equal distance to either major roadway and Gessner is just down the street.  You have plenty of options when you are ready to hit the road and explore Houston.
+Exterior/security:  I was very pleased to see adequate parking at this location.  Nearly everyone that was staying at the hotel was able to park in the front.  All parking areas are well lighted and I noticed a security guard parked in the back of the hotel on Saturday night.   
+Front Desk/Lobby area:  The front desk is located to the left of the front entrance.  The lobby has lots of seating, a fireplace and buffet area.  I was informed of the free morning buffet, but did not tend to it.  
+Room:...Date of stay:  March 24th through 26thRoom type:  Studio Suite 1 King Non-smookingFloor location:  Third floor This was my first time staying at this Staybridge location and it will not be my last!  I have a lot of positive things to say about this hotel and took lots of photos to share with everyone.  The reason why I took so many photos was because when I was booking my room I was a little disappointed to only see 2 to 3 room views.  I wanted to ensure to provide everyone with a detailed view of the Studio Suite 1 King Non-smooking room.Location:  This hotel is centrally located off Beltway 8 between Hwy 290 and I-10.  It is literally equal distance to either major roadway and Gessner is just down the street.  You have plenty of options when you are ready to hit the road and explore Houston.Exterior/security:  I was very pleased to see adequate parking at this location.  Nearly everyone that was staying at the hotel was able to park in the front.  All parking areas are well lighted and I noticed a security guard parked in the back of the hotel on Saturday night.   Front Desk/Lobby area:  The front desk is located to the left of the front entrance.  The lobby has lots of seating, a fireplace and buffet area.  I was informed of the free morning buffet, but did not tend to it.  Room:  I have to give this hotel lots of kudos for the overall cleanliness of the hotel exterior, lobby area and room.  I did not notice any dust or anything "out of place" during my stay.  The room was very well maintained by the staff and they should be commended for that.  Upon entering the room the kitchen area is located to the left hand side.  You have a dishwasher, sink area, pantry, refrigerator and small stove.  The pantry has dishes for you to use and the refrigerator has a drinking container.  The seating area is the the right hand side of the room and the bed is against the rear left hand side of the room.  My room had four pillows and was very nice and plush.  The bathroom is located to the left hand side of the bedding area.  As odd as this may sound the only feedback that I have is that this room type seemed to have too many items crammed inside of it.  That may seem like an odd comment, but there is literally no vacant area that will leave you thinking, "Something is missing here."  Perhaps all the furnishings are a bit more dispersed in a larger sized room, which I will soon find out, but this room type seemed a little crammed.  Bathroom:  You will be provided with the standard amenities of shampoo, conditioner, body lotion and body wash.  My room had three bath towels, floor mat and approximately four to five smaller sized towels for bathing and etc.  Pro's:  Location, hotel cleanliness and little to no noise level.  Con's:  Room type may appear to be crammed with furnishings, but it grows on you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r402879067-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402879067</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Very good hotel, with not very good staff</t>
+  </si>
+  <si>
+    <t>Stayed for a week recently. Very clean and beautiful hotel. Close to my work. Close to highway. Good breakfast, and free food and wine and beer 3 nights per week. Good size room, with full kitchen. Nice pool and bbq area.  I liked the hotel.I am taking out half a star because the elevator was out of order for most of the week, and my room was on the 3rd floor.Also I am taking out one and a half star for the front desk lady, called Khadijah. I think she does not know what customer service is. She is rude, with attitude. The rest of the staff were polite, nice, smiling, and great, especially the night shift. But this lady, really needs to get out of this job and get a job where she doesn't interact with people!Also I stayed there for a week, and requested a late check out by one hour (1 pm instead of noon) and I was told I have to pay extra for that. Though it was a great hotel, I will stay in another one next time around.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for a week recently. Very clean and beautiful hotel. Close to my work. Close to highway. Good breakfast, and free food and wine and beer 3 nights per week. Good size room, with full kitchen. Nice pool and bbq area.  I liked the hotel.I am taking out half a star because the elevator was out of order for most of the week, and my room was on the 3rd floor.Also I am taking out one and a half star for the front desk lady, called Khadijah. I think she does not know what customer service is. She is rude, with attitude. The rest of the staff were polite, nice, smiling, and great, especially the night shift. But this lady, really needs to get out of this job and get a job where she doesn't interact with people!Also I stayed there for a week, and requested a late check out by one hour (1 pm instead of noon) and I was told I have to pay extra for that. Though it was a great hotel, I will stay in another one next time around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r399201535-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399201535</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!!!!!</t>
+  </si>
+  <si>
+    <t>Beautiful hotel. Staff was super friendly and very helpful. Our family slept very well on very comfortable beds. The suite was very clean. Breakfast was super good. I definitely recommend this hotel. The hotel staff helped us get ice for our small ice chest, which was super awesome of her. Check in was quick and fast.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r383466544-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383466544</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Nice Pool/Patio, Great Breakfast/Entrees at Night, Free Laundry</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 5 nights. Mon-Wed in the evening they have a free entree and sides with free beer (on tap) and wine and one of these nights they are usually grilling. The breakfast is served every morning and is wonderful with fruits, oatmeal, toast/bagel/pastries/waffles, yogurt tea and coffee. The hotel rooms are very nice as well and the property is new and well kept and all the staff were friendly. They have an exercise room and free laundry ($1 for soap at the desk). All in all I wouldnt hesistate to stay here again</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r360763570-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360763570</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Comfortable relaxing and affordable</t>
+  </si>
+  <si>
+    <t>This is a great little hotel. We came for the better part of the week and it was just great. The staff was friendly and helpful, the exercise room while small was more than adequate the rooms were clean and had everything one would need to make yourself comfortable. The pool and patio were very nice. Just a great place to spend a week</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r356450164-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356450164</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Consistent stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed at the StayBridge four times over the past year and have been very pleased with the hotel.  It's a new hotel so the facilities are nice and clean.  Good, free breakfast for a hotel.  They have a courtyard out back with a small pool, covered outdoor kitchen and fire pit.  A nice place to hang out after dinner and enjoy a cigar.  Staff is friendly. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r341078247-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341078247</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice property though the bed is small</t>
+  </si>
+  <si>
+    <t>Nice welcome ,very clean with nice furnishings. There is no highway noise even though we are very close, however Our first room next to the mechanical room and with a heep of aircon motors outside our windo  is like being in an airport hanger .The laundry is excellent with no cost other than detergent. The queen bed seemed like an Australian double way too small so we upgraded to a 2 bed suite which was so much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Richie C, Director of Sales at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Nice welcome ,very clean with nice furnishings. There is no highway noise even though we are very close, however Our first room next to the mechanical room and with a heep of aircon motors outside our windo  is like being in an airport hanger .The laundry is excellent with no cost other than detergent. The queen bed seemed like an Australian double way too small so we upgraded to a 2 bed suite which was so much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r330423404-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330423404</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Nice facility - no nearby amenities</t>
+  </si>
+  <si>
+    <t>Nice new property with generous rooms that are very homey. Staff is friendly and complimentary dinner and happy hour is a nice touch. Unfortunately there are no stores or restaurants nearby, so one feels a bit stranded. Other than remote location, a great place especially for extended stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Richie C, Director of Sales at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Nice new property with generous rooms that are very homey. Staff is friendly and complimentary dinner and happy hour is a nice touch. Unfortunately there are no stores or restaurants nearby, so one feels a bit stranded. Other than remote location, a great place especially for extended stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r323658909-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323658909</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Love this place!!</t>
+  </si>
+  <si>
+    <t>Great hotel with a wonderful staff! Great rooms with really comfortable beds!! Feels like home. Wonderful breakfast buffet!! Dont miss the chance to enjoy this hotel. The grilling area is so bice and clean. Well covered for a rainy day bbq!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Richie C, Director of Sales at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel with a wonderful staff! Great rooms with really comfortable beds!! Feels like home. Wonderful breakfast buffet!! Dont miss the chance to enjoy this hotel. The grilling area is so bice and clean. Well covered for a rainy day bbq!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r301284262-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301284262</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>AMAZING!!</t>
+  </si>
+  <si>
+    <t>What an amazing stay! The hotel is beautiful, the food was delicious, and the staff was top notch! Richie and Nicole were both so welcoming and kind! Family friendly, great location, and the suites are great. Will be the only place we stay in Houston from here on out!MoreShow less</t>
+  </si>
+  <si>
+    <t>Richie C, Director of Sales at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded August 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2015</t>
+  </si>
+  <si>
+    <t>What an amazing stay! The hotel is beautiful, the food was delicious, and the staff was top notch! Richie and Nicole were both so welcoming and kind! Family friendly, great location, and the suites are great. Will be the only place we stay in Houston from here on out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r295835129-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295835129</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>The hotel staff was one of the best I have witnessed in my years of vacationing.  They meet you as you enter and acknowledge you at every possible time.The rooms were spacious and very clean.  The pool and outside entertaining area were something not seen at other hotels.  I was at one time in the hotel business and the staff here are beyond great in hospitality.Steve , LouisianaMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Richie C, Director of Sales at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>The hotel staff was one of the best I have witnessed in my years of vacationing.  They meet you as you enter and acknowledge you at every possible time.The rooms were spacious and very clean.  The pool and outside entertaining area were something not seen at other hotels.  I was at one time in the hotel business and the staff here are beyond great in hospitality.Steve , LouisianaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r291453988-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291453988</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I was in town for business and decided on the Staybridge.  This is a very nice hotel.  The rooms very clean and very modern.  The have a managers reception Tuesday through Thursday with food and drink.  This is a very nice hotel that I will be sure to stay at in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r268380710-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268380710</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Corporate international meeting</t>
+  </si>
+  <si>
+    <t>This was an excellent hotel to hold our 25th anniversary meeting. The staff was friendly and went above and beyond the call of duty. The meals were great, the gathering area was perfect for our social hours, and the suites could not have been better.I travel to Houston often, and I can happily say that I have a new home away from home while I am traveling in Houston.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r263578152-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263578152</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Don't Miss Out!</t>
+  </si>
+  <si>
+    <t>I love Staybridge and this one is the best so far!  First, it is brand new... open 3 months.  Second,  the suites are more like small apartments so you can settle in.   Third, it is beautiful and feels like an escape with amenities like a den, free business center and laundry,  nice sized exercise room.  Most of all, the customer service is awesome.   Not only did I get upgraded for free but when I thought I had a problem in my room after midnight,  Charlotte was both responsive and accommodating. The hotel is on the beltway at Clay... accessible to City Centre and Memorial City in minutes.   Don't miss out!MoreShow less</t>
+  </si>
+  <si>
+    <t>I love Staybridge and this one is the best so far!  First, it is brand new... open 3 months.  Second,  the suites are more like small apartments so you can settle in.   Third, it is beautiful and feels like an escape with amenities like a den, free business center and laundry,  nice sized exercise room.  Most of all, the customer service is awesome.   Not only did I get upgraded for free but when I thought I had a problem in my room after midnight,  Charlotte was both responsive and accommodating. The hotel is on the beltway at Clay... accessible to City Centre and Memorial City in minutes.   Don't miss out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r262985370-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262985370</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>I strongly recommend this hotel. They offer you many options, it's comfortable and very reasonable. Since it's a small hotel, the personnel knows their guests and their better. I will definitely stay there on my next trip to Houston.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1091,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1123,1527 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>192</v>
+      </c>
+      <c r="X21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_600.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_600.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,103 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r614058731-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7175858</t>
+  </si>
+  <si>
+    <t>614058731</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super clean and beautiful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time in a StayBridge and let me say, Beautiful property! The rooms are huge and come with full size fridge and cooking area. One of the best things about these rooms, the bedrooms are split from the living rooms and kitchens, giving them more of a home feel! Customer service was second to none. Kudos! </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r611962219-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>611962219</t>
+  </si>
+  <si>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>I look forward to returning</t>
+  </si>
+  <si>
+    <t>Great amenities, a full size refrigerator, microwave, 2 large flat screen TVs, fancy soaps and complimentary popcorn all made my stay one to remember.  The rooms were spacious and immaculate. It was hard to leave, next time I’m in Houston I look forward to returning and hopefully staying longer.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r611955881-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>611955881</t>
+  </si>
+  <si>
+    <t>Sheets!</t>
+  </si>
+  <si>
+    <t>Me and some friends stayed at the Staybridge suites here in Houston last night and had the comfortable room, the layout of the room felt like a cozy apartment, and the sheets were so soft and comfortable!! The staff was friendly too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r606435574-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606435574</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Hardest part was leaving!</t>
+  </si>
+  <si>
+    <t>Staybridge Suites is the sweetest brand for touring bands and this location nails everything I love about them. First of all this property is in a great location right off of the interstate with plenty of parking for an oversized vehicle such as ours. Fast and friendly late night check in. The rooms are extremely spacious and have full kitchens with all the utensils and cookware needed to cook a meal you are used to over having to get something from McDonalds. If you been subsisting on fried bar food like we have, you’ll be pleased with the 24 hr work out room with a great selection of equipment. I love the free laundry facilities and 24 hr store. My favorite thing though is the excellent continental breakfast with a wide variety of premium choices and also a soda fountain! Love love love this spot and can’t wait to be back when touring through the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staybridge Suites is the sweetest brand for touring bands and this location nails everything I love about them. First of all this property is in a great location right off of the interstate with plenty of parking for an oversized vehicle such as ours. Fast and friendly late night check in. The rooms are extremely spacious and have full kitchens with all the utensils and cookware needed to cook a meal you are used to over having to get something from McDonalds. If you been subsisting on fried bar food like we have, you’ll be pleased with the 24 hr work out room with a great selection of equipment. I love the free laundry facilities and 24 hr store. My favorite thing though is the excellent continental breakfast with a wide variety of premium choices and also a soda fountain! Love love love this spot and can’t wait to be back when touring through the Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r604136125-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>604136125</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Amazing!!</t>
+  </si>
+  <si>
+    <t>The room was extremely clean and the beds  were very comfortable. The AC was so refreshing after being in the Texas heat all day! The bedroom was separated by a door from the tv and kitchen area. The kitchen was fully stocked with plates glass cups and other appliances. Ive seen kitchenettes in hotels but this one was one of the biggest and had the most counter/ cabinet space! The front desk let me know that if I called in the morning I could extend my check out until 2 pm. I'm not an early bird and I was so happy that I could catch a few more hours of sleep. They had a wonderful pool located out back with a nice patio area. Great place! Great location! A+MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was extremely clean and the beds  were very comfortable. The AC was so refreshing after being in the Texas heat all day! The bedroom was separated by a door from the tv and kitchen area. The kitchen was fully stocked with plates glass cups and other appliances. Ive seen kitchenettes in hotels but this one was one of the biggest and had the most counter/ cabinet space! The front desk let me know that if I called in the morning I could extend my check out until 2 pm. I'm not an early bird and I was so happy that I could catch a few more hours of sleep. They had a wonderful pool located out back with a nice patio area. Great place! Great location! A+More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r598711411-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>7175858</t>
   </si>
   <si>
     <t>598711411</t>
@@ -189,6 +276,24 @@
 Breakfast the first morning was disgusting. I hate to say it but it tasted and looked like literal wet dog food. I'm not sure what they were...The weekend my husband and I stayed at this location, it was sort of a mini-staycation of sorts to getaway to recoup and explore. This hotel is decently sized and the facility is very well kept from what we could see upon arriving. Both the rooms we stayed in were comfortable, however the second room we were in (we requested to be moved due to the other guests impoliteness) smelled like a hobo had been lounging around. More so around the kitchen sink area but if you turned the air off the smell would permeate the room. Maybe there was a leak some where that left mold or mildew? Or perhaps the air conditioning unit needed to be maintained. Either way, I did share this with the front desk and I got the feeling they'd look into the room and fix it up promptly so I hope that  was the case.While the majority of the guests that were staying with us in the hotel were silent there were a few rowdy and impolite guests. Specifically at night when the pool hours clearly indicated no one should be using the area. Which by the way is relatively small, considering the amount of rooms available and the capacity there should be another pool available. Breakfast the first morning was disgusting. I hate to say it but it tasted and looked like literal wet dog food. I'm not sure what they were going for in terms of their hashbrown mix but it left a lot to be desired. The second day the options available were more palatable and appreciated. We didn't get to use the pool as we had hoped. This was partly due to the fact that every time we considered going there were too many folks swimming in such a small pool area. The only issue we truly had aside from the rude guests that were sharing the space with us was the fact that on the first night when we were awoken to kids screaming and shouting. We were told some nonsense about them being a part of a little league team. Which is great and all but the fact remains we were also paying customers and the time for these children to be out of the pool had come and gone. We should not have been met with any sort of hostility when asking for something to be done regarding the noise by the front desk. Otherwise, the majority of the staff were friendly and approachable. Some not so much but they still did their jobs which is all we could ask for and was appreciated. If you're planning on checking out the area, please be advised you will need to drive twenty plus minutes in either direction to get to anything and most of the options available are not all that enticing. Probably a better fit for people passing through the area given the experience I had.I give this location a 3.5 rating seeing as the location itself is kept up and the staff (even the few who might be disgruntled) did their best to keep the peace and help keep our stay decently comfortable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r577759320-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577759320</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Clean, New, Quiet, with a Great Location and a Friendly Staff</t>
+  </si>
+  <si>
+    <t>We had the pleasure of putting up two hall of fame wrestlers (Jake the Snake Roberts and Hacksaw Jim Duggan) at this Staybridge.The hotel was great! Spacious and new. Clean and quiet. The rooms were comfortable and the grounds were clean.The front desk staff was super nice and made sure the guys were taken care of.We would love to return!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r577526721-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -204,12 +309,6 @@
     <t>From the well lit parking lot to the convenient location to the rad staff and friendly vibe, Staybridge made my stay easy which was appreciated after such a long drive. Will for sure be back, y'all can't stop me!</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r575593070-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -228,6 +327,42 @@
     <t>This was a nice hotel right off of the Sam Houston Expressway in Houston. We had been on the road a few days and the amenities that the hotel provided were just what we needed. The staff checked us in just fine and the rooms were large and newly renovated. The rooms have a kitchenette with a fridge and a coffee maker. There was free laundry and free breakfast in the morning. Because this was an extended stay hotel, they have free dinner on some week nights, but we were coming in on a Saturday. We were treated great by the staff. This is a nice, safe hotel, especially tailored to business travelers. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r562070719-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562070719</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Peaceful and luxurious</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Staybridge Suites. I am currently holidaying in the US. I am from Lyon, France. I pick top range hotels because I seek comfort. This hotel gives me just that. Comfort. I could work online from my hotel room. I am affiliate marketer and blogger. My profile explains me in detail. I enjoyed working from the outdoor sit out area. Great hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r557771930-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557771930</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Exceeded expectations across the board</t>
+  </si>
+  <si>
+    <t>"Extended stay" often connotes poorly kept, outdated facilities, and feel more like staying with a slovenly friend than at a hotel. Not at all the case with Staybridge I-10! The room was massive and very clean, with plenty of space for my two colleagues and me to work and move around. The kitchenette was especially nice, very modern and clean, though we didn't need it this trip. The common rooms were spacious, and there was even a social event with free food AND drink!  Honestly, though, it was the staff that most stood out. The shuttle service was exceedingly accommodating, and were more than helpful with our errands. I wish we could have stayed longer to use the lovely pool as well. In all, I'd highly recommended for either shorter or longer term stay. No complaints whatsoever!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>"Extended stay" often connotes poorly kept, outdated facilities, and feel more like staying with a slovenly friend than at a hotel. Not at all the case with Staybridge I-10! The room was massive and very clean, with plenty of space for my two colleagues and me to work and move around. The kitchenette was especially nice, very modern and clean, though we didn't need it this trip. The common rooms were spacious, and there was even a social event with free food AND drink!  Honestly, though, it was the staff that most stood out. The shuttle service was exceedingly accommodating, and were more than helpful with our errands. I wish we could have stayed longer to use the lovely pool as well. In all, I'd highly recommended for either shorter or longer term stay. No complaints whatsoever!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r547953538-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -282,6 +417,48 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r529032855-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529032855</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>"The Staybridge Suites in Houston is as nice as a place you can find anywhere."</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites in Houston is as nice as a place you can find anywhere. You walk in and are greeted by their helpful and friendly staff. Next to the front desk is "The Pantry." Here they sell snacks, microwavable meals, and the traveling necessities that we all leave behind. Pass the fire place is a huge, comfortable common area that also doubles as the area for their complimentary breakfast. A breakfast that is as good as any you'll find.
+The Staybridge Suites provides a great experience with all the bells and whistles.Beyond the common area is a large surrounding outdoor patio and a beautiful outdoor pool. The hotel also provides a business area, workout room and even a laundry room. All the things long time travelers are sure to appreciate.
+Finally, there are the rooms. You walk in the one of the first things you notice is the full kitchen. A FULL KITCHEN. It comes complete with a full refrigerator, full stove, microwave, coffee maker and a dishwasher. The next thing that you will appreciate is the room's living room area that comes complete with a couch that folds out to a comfortable and good sized hideaway bed. The bedroom itself is incredibly spacious. Plenty of closet space with a sink and mirror that is separate from the rest of the bathroom. Which, if you are sharing a hotel room with multiple people, you really appreciate.
+It was my...The Staybridge Suites in Houston is as nice as a place you can find anywhere. You walk in and are greeted by their helpful and friendly staff. Next to the front desk is "The Pantry." Here they sell snacks, microwavable meals, and the traveling necessities that we all leave behind. Pass the fire place is a huge, comfortable common area that also doubles as the area for their complimentary breakfast. A breakfast that is as good as any you'll find.The Staybridge Suites provides a great experience with all the bells and whistles.Beyond the common area is a large surrounding outdoor patio and a beautiful outdoor pool. The hotel also provides a business area, workout room and even a laundry room. All the things long time travelers are sure to appreciate.Finally, there are the rooms. You walk in the one of the first things you notice is the full kitchen. A FULL KITCHEN. It comes complete with a full refrigerator, full stove, microwave, coffee maker and a dishwasher. The next thing that you will appreciate is the room's living room area that comes complete with a couch that folds out to a comfortable and good sized hideaway bed. The bedroom itself is incredibly spacious. Plenty of closet space with a sink and mirror that is separate from the rest of the bathroom. Which, if you are sharing a hotel room with multiple people, you really appreciate.It was my first time at the Staybridge Suites in Houston, TX. and I know it will not be my last. Seriously, this place is perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites in Houston is as nice as a place you can find anywhere. You walk in and are greeted by their helpful and friendly staff. Next to the front desk is "The Pantry." Here they sell snacks, microwavable meals, and the traveling necessities that we all leave behind. Pass the fire place is a huge, comfortable common area that also doubles as the area for their complimentary breakfast. A breakfast that is as good as any you'll find.
+The Staybridge Suites provides a great experience with all the bells and whistles.Beyond the common area is a large surrounding outdoor patio and a beautiful outdoor pool. The hotel also provides a business area, workout room and even a laundry room. All the things long time travelers are sure to appreciate.
+Finally, there are the rooms. You walk in the one of the first things you notice is the full kitchen. A FULL KITCHEN. It comes complete with a full refrigerator, full stove, microwave, coffee maker and a dishwasher. The next thing that you will appreciate is the room's living room area that comes complete with a couch that folds out to a comfortable and good sized hideaway bed. The bedroom itself is incredibly spacious. Plenty of closet space with a sink and mirror that is separate from the rest of the bathroom. Which, if you are sharing a hotel room with multiple people, you really appreciate.
+It was my...The Staybridge Suites in Houston is as nice as a place you can find anywhere. You walk in and are greeted by their helpful and friendly staff. Next to the front desk is "The Pantry." Here they sell snacks, microwavable meals, and the traveling necessities that we all leave behind. Pass the fire place is a huge, comfortable common area that also doubles as the area for their complimentary breakfast. A breakfast that is as good as any you'll find.The Staybridge Suites provides a great experience with all the bells and whistles.Beyond the common area is a large surrounding outdoor patio and a beautiful outdoor pool. The hotel also provides a business area, workout room and even a laundry room. All the things long time travelers are sure to appreciate.Finally, there are the rooms. You walk in the one of the first things you notice is the full kitchen. A FULL KITCHEN. It comes complete with a full refrigerator, full stove, microwave, coffee maker and a dishwasher. The next thing that you will appreciate is the room's living room area that comes complete with a couch that folds out to a comfortable and good sized hideaway bed. The bedroom itself is incredibly spacious. Plenty of closet space with a sink and mirror that is separate from the rest of the bathroom. Which, if you are sharing a hotel room with multiple people, you really appreciate.It was my first time at the Staybridge Suites in Houston, TX. and I know it will not be my last. Seriously, this place is perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r528524488-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528524488</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Houston Hospitality At Its Best</t>
+  </si>
+  <si>
+    <t>Wow! What amazing hospitality shown by the management and staff at Staybridge Suites Houston I-10 West-Beltway 8. Very friendly and professional. We will definitely recommend this property to all future associates and friends.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r528359277-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -295,9 +472,6 @@
   </si>
   <si>
     <t>what a great place?!?!?!?! The staff makes you feel at home by being so friendly. The complimentary breakfast is phenomenal. They really go above and beyond to make sure they have a little bit of everything. It is very good and fresh! There is an office center that is very clean and the computers are very easy to use without any logins. Property is very clean! Staff works very hard and you can tell they love their jobs. The location is very convenient. Freeway entrances nearby.</t>
-  </si>
-  <si>
-    <t>September 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r514993375-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
@@ -357,6 +531,45 @@
   </si>
   <si>
     <t>Reserved a room with two queens.  Got in and they said, "Sorry, we gave your room away and downgraded you to one bed and a couch that pulls out (which was barely bigger than a twin).  Oh, but we're going to give you a great rate at $89 and give you 500 points."I looked up the room they gave us.  It's usually $87 on the weekend.  And thanks for the points we'll never use.  They never even apologized and acted like we should be grateful we got something.Finally get to our room.  Our phone doesn't work and there are no sheets so we had to go down and get them.  We got in tired at 10 pm with two kids and had to wait so we could make our own frickin' beds.  Bottom line, why bother reserving a room in advance because they'll just give it away.  Will never stay here again.  Pretty crappy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r480908592-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480908592</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>Quiet room, good A/C, comfortable bed and pillows, nice suite for those needing extended stay, and a shout out to Laurice for being an exceptional host! Easy parking and access to Beltway/tollway and I-10.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r478033289-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478033289</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Such a relaxing time!!</t>
+  </si>
+  <si>
+    <t>My hubby, kids and I went for a weekend getaway to Houston.  This was the hotel we selected, based on its glowing reviews on TripAdvisor.com of course.  We arrived to a warm welcome by the front desk agent.  The room was exceptionally clean!  I pulled back the sheets and they were clean, not reused.  The bathroom was tidy from top to bottom.  The carpets were vacuumed.  There was no layer of dust from months gone by....it was nice!  I was surprised to find that there's no maid service on the weekend, but that was ok because everything else was so nicely done.  I give huge thanks to Laurice(sp?), the front desk agent that weekend. He was awesome! Made us feel at home, checked on the guests who were poolside to see if they needed anything, and went the extra mile to give a wonderful customer service experience!  I've already recommended others to stay here.  Oh yes, and the breakfast was great....not a big fan of the service staff, as they tended more towards the rude side, but everything else made up for that minor complaint.  Will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>My hubby, kids and I went for a weekend getaway to Houston.  This was the hotel we selected, based on its glowing reviews on TripAdvisor.com of course.  We arrived to a warm welcome by the front desk agent.  The room was exceptionally clean!  I pulled back the sheets and they were clean, not reused.  The bathroom was tidy from top to bottom.  The carpets were vacuumed.  There was no layer of dust from months gone by....it was nice!  I was surprised to find that there's no maid service on the weekend, but that was ok because everything else was so nicely done.  I give huge thanks to Laurice(sp?), the front desk agent that weekend. He was awesome! Made us feel at home, checked on the guests who were poolside to see if they needed anything, and went the extra mile to give a wonderful customer service experience!  I've already recommended others to stay here.  Oh yes, and the breakfast was great....not a big fan of the service staff, as they tended more towards the rude side, but everything else made up for that minor complaint.  Will definitely be back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r471240765-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
@@ -442,6 +655,43 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r393919081-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393919081</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Great night-already booked to go back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband had business in the Houston area so we took our family along to visit the children's museum. This hotel was perfect! Clean,-very clean! I typically have tons of reservations about hotels but felt very comfortable here. The beds were very comfortable &amp; we found it quiet unlike other reviews. The breakfast provided was a great spread but wasn't replenished very well at peak times but we had what we needed so it didn't cause us any inconvenience. There's a cute outside fire pit area near the pool that would be nice later at night. Can't wait to go back and stay a little longer. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r388778301-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388778301</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>okay location with unimpressive service</t>
+  </si>
+  <si>
+    <t>This was my first and definitely my last time staying at the hotel. I chose this location as it is convenient for me to get some sleep after dropping someone at the hotel and before heading west on I-10. With where the hotel is located, I can see people staying here for business purposes and really nothing else. It's surrounded by...nothing.
+Upon arrival at 10:45, I guess they lock their front door past a certain time and I couldn't get in! There was no sign showing HOW to get in so I had to walk back and forth until I got someone's attention (front desk rep was chatting with a friend). When I walked up to the front desk, it was blocked by three large barstools and I couldn't reach the desk. I had to literally throw my ID and credit card over the chairs. Why would anyone do this? Who needs to sit down to check in, a process that takes less than 5 minutes? It was so uncomfortable and unnecessary. I did eventually move one of the chairs out of the way but really wish I did not have to do that. 
+The room itself (a studio suite) was decent size with a wrap around couch, a desk, a small kitchen (with a full size fridge) and a bed. Two things I noticed right away was though the AC was on, the room felt damp and the carpet...This was my first and definitely my last time staying at the hotel. I chose this location as it is convenient for me to get some sleep after dropping someone at the hotel and before heading west on I-10. With where the hotel is located, I can see people staying here for business purposes and really nothing else. It's surrounded by...nothing.Upon arrival at 10:45, I guess they lock their front door past a certain time and I couldn't get in! There was no sign showing HOW to get in so I had to walk back and forth until I got someone's attention (front desk rep was chatting with a friend). When I walked up to the front desk, it was blocked by three large barstools and I couldn't reach the desk. I had to literally throw my ID and credit card over the chairs. Why would anyone do this? Who needs to sit down to check in, a process that takes less than 5 minutes? It was so uncomfortable and unnecessary. I did eventually move one of the chairs out of the way but really wish I did not have to do that. The room itself (a studio suite) was decent size with a wrap around couch, a desk, a small kitchen (with a full size fridge) and a bed. Two things I noticed right away was though the AC was on, the room felt damp and the carpet felt damp (I know, gross). After climbing into bed and laying there for about a few minutes, I started to itch so I checked and made sure there were no bugs. There were no bugs. I guess it was the sheets or the duvet cover that irritated my skin. I don't remember experiencing this type of discomfort at another hotel.My sleep was relatively uneventful except for waking up to some doors opening and closing at around 6:30am. This could happen at any hotel and wasn't a concern to me. While trying to check out (over the oversized barstools), there was not one person in sight at or near the front desk. I couldn't check out!! Finally after waiting awhile I just left my room key on the counter and left.There are so many hotels in Houston at comparable price that I would never stay here again nor would I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first and definitely my last time staying at the hotel. I chose this location as it is convenient for me to get some sleep after dropping someone at the hotel and before heading west on I-10. With where the hotel is located, I can see people staying here for business purposes and really nothing else. It's surrounded by...nothing.
+Upon arrival at 10:45, I guess they lock their front door past a certain time and I couldn't get in! There was no sign showing HOW to get in so I had to walk back and forth until I got someone's attention (front desk rep was chatting with a friend). When I walked up to the front desk, it was blocked by three large barstools and I couldn't reach the desk. I had to literally throw my ID and credit card over the chairs. Why would anyone do this? Who needs to sit down to check in, a process that takes less than 5 minutes? It was so uncomfortable and unnecessary. I did eventually move one of the chairs out of the way but really wish I did not have to do that. 
+The room itself (a studio suite) was decent size with a wrap around couch, a desk, a small kitchen (with a full size fridge) and a bed. Two things I noticed right away was though the AC was on, the room felt damp and the carpet...This was my first and definitely my last time staying at the hotel. I chose this location as it is convenient for me to get some sleep after dropping someone at the hotel and before heading west on I-10. With where the hotel is located, I can see people staying here for business purposes and really nothing else. It's surrounded by...nothing.Upon arrival at 10:45, I guess they lock their front door past a certain time and I couldn't get in! There was no sign showing HOW to get in so I had to walk back and forth until I got someone's attention (front desk rep was chatting with a friend). When I walked up to the front desk, it was blocked by three large barstools and I couldn't reach the desk. I had to literally throw my ID and credit card over the chairs. Why would anyone do this? Who needs to sit down to check in, a process that takes less than 5 minutes? It was so uncomfortable and unnecessary. I did eventually move one of the chairs out of the way but really wish I did not have to do that. The room itself (a studio suite) was decent size with a wrap around couch, a desk, a small kitchen (with a full size fridge) and a bed. Two things I noticed right away was though the AC was on, the room felt damp and the carpet felt damp (I know, gross). After climbing into bed and laying there for about a few minutes, I started to itch so I checked and made sure there were no bugs. There were no bugs. I guess it was the sheets or the duvet cover that irritated my skin. I don't remember experiencing this type of discomfort at another hotel.My sleep was relatively uneventful except for waking up to some doors opening and closing at around 6:30am. This could happen at any hotel and wasn't a concern to me. While trying to check out (over the oversized barstools), there was not one person in sight at or near the front desk. I couldn't check out!! Finally after waiting awhile I just left my room key on the counter and left.There are so many hotels in Houston at comparable price that I would never stay here again nor would I recommend this place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r383466544-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -496,6 +746,39 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r354908052-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354908052</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Good place and nice people</t>
+  </si>
+  <si>
+    <t>We stayed there for a 2 day business meeting and while the hotel is a little offsite with no nearby amenities, we enjoyed our stay and had a productive meeting. Meals and snacks served in-between were good and the service of the staff was simply excellent and very friendly. We definitely like the happy hour and free flow of beer and wine in the early evening. UBER goes there but it can be expensive depends were you want to go. Rooms, as always for a Staybridge, were clean and comfortable.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r353350108-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353350108</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of Town Basketball Tournament </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three teams from my sons club stayed here. The rooms were perfect. The staff treated us well. The area around it is a bit sketchy especially at night(got in late and needed water and some food) but felt safe in the hotel itself. Would stay here again. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r341078247-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -580,6 +863,58 @@
     <t>Great hotel with a wonderful staff! Great rooms with really comfortable beds!! Feels like home. Wonderful breakfast buffet!! Dont miss the chance to enjoy this hotel. The grilling area is so bice and clean. Well covered for a rainy day bbq!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r313853568-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313853568</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Home away from home!!</t>
+  </si>
+  <si>
+    <t>Since I arrived a month ago, I have felt like I am home with a new family. When one lives on the road and makes a temporary home for 3 months or more in a hotel, it is such a blessing to be welcomed from day one! From those at the front desk, the Management staff, the awesome kitchen staff, the maintenance staff, the housekeeping staff and the many wonderful new friends that are, also, guests have made this stay incredible. The establishment is spotless, the breakfast is wonderful (no powdered eggs and all fresh fruits, breads, cereals and more), the wonderful socials are more like a meal then just a social (Tuesday-Thursday of salad, cookies and a main entree as  well...grill night is awesome and packed), free laundry facilities, the suites have kitchens with full size refrigerators and great recipes, couches, beds, wonderful bathrooms and fully stocked to meet all your needs. The outdoor pool and grills are a great added perk! I really like having two TV's (one bedroom)...his and hers so to speak.. Personally, I have made some lifetime new friends (family) since I arrived and will be sad to leave! I will return if ever in the area again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Since I arrived a month ago, I have felt like I am home with a new family. When one lives on the road and makes a temporary home for 3 months or more in a hotel, it is such a blessing to be welcomed from day one! From those at the front desk, the Management staff, the awesome kitchen staff, the maintenance staff, the housekeeping staff and the many wonderful new friends that are, also, guests have made this stay incredible. The establishment is spotless, the breakfast is wonderful (no powdered eggs and all fresh fruits, breads, cereals and more), the wonderful socials are more like a meal then just a social (Tuesday-Thursday of salad, cookies and a main entree as  well...grill night is awesome and packed), free laundry facilities, the suites have kitchens with full size refrigerators and great recipes, couches, beds, wonderful bathrooms and fully stocked to meet all your needs. The outdoor pool and grills are a great added perk! I really like having two TV's (one bedroom)...his and hers so to speak.. Personally, I have made some lifetime new friends (family) since I arrived and will be sad to leave! I will return if ever in the area again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r304179709-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304179709</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Management and Staff were Awesome!!!</t>
+  </si>
+  <si>
+    <t>My wife and I resided at the Staybridge Suites on BW8 at Kempwood in Houston for three nights.  What luxurious accommodations!  I loved their pressed cotton sheets and soft comforters most of all.  They gave us a choice of pillow types when we requested more.  The kitchen had everything that we needed for our stay and the hotel staff was quick to provide us with extra ice for our room.
+I want to point out the best part of our stay: The Staff.  From the management down, everyone there was friendly and gracious.  I had the opportunity to meet with Donald, the General Manager, and discussed with him some of the intricacies of the construction of this new hotel.  He was very knowledgeable about not only customer service, but also with the workings of the facility and its amenities.  We met Richie Cook as well.  Richie worked with us and helped us plan our evenings.  His knowledge of the restaurants and events surrounding the hotel was great and he gave advice on nighttime activities that we might enjoy.  Such a nice guy. Nicole  and Courtney were both very helpful and spoke to us each time we saw them.  They remembered our names and treated us like family.  Exactly what I expect when staying at a residence for three or more days.
+We tried to stay there an extra night but they were already booked. (I guess everyone loves staying there...My wife and I resided at the Staybridge Suites on BW8 at Kempwood in Houston for three nights.  What luxurious accommodations!  I loved their pressed cotton sheets and soft comforters most of all.  They gave us a choice of pillow types when we requested more.  The kitchen had everything that we needed for our stay and the hotel staff was quick to provide us with extra ice for our room.I want to point out the best part of our stay: The Staff.  From the management down, everyone there was friendly and gracious.  I had the opportunity to meet with Donald, the General Manager, and discussed with him some of the intricacies of the construction of this new hotel.  He was very knowledgeable about not only customer service, but also with the workings of the facility and its amenities.  We met Richie Cook as well.  Richie worked with us and helped us plan our evenings.  His knowledge of the restaurants and events surrounding the hotel was great and he gave advice on nighttime activities that we might enjoy.  Such a nice guy. Nicole  and Courtney were both very helpful and spoke to us each time we saw them.  They remembered our names and treated us like family.  Exactly what I expect when staying at a residence for three or more days.We tried to stay there an extra night but they were already booked. (I guess everyone loves staying there as much as we do!)  We had to stay at a competitors hotel and were not at all impressed.  The competitor hotel had no free breakfast or evening gathering, TV the size of a postage stamp, and listed "amenities" such as in room smoke detectors and fire extinguishers on every floor.  Seriously?We are back in town next week and have already booked a room with these folks that we now consider our home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Richie C, Director of Sales at Staybridge Suites Houston I-10 West-Beltway 8, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I resided at the Staybridge Suites on BW8 at Kempwood in Houston for three nights.  What luxurious accommodations!  I loved their pressed cotton sheets and soft comforters most of all.  They gave us a choice of pillow types when we requested more.  The kitchen had everything that we needed for our stay and the hotel staff was quick to provide us with extra ice for our room.
+I want to point out the best part of our stay: The Staff.  From the management down, everyone there was friendly and gracious.  I had the opportunity to meet with Donald, the General Manager, and discussed with him some of the intricacies of the construction of this new hotel.  He was very knowledgeable about not only customer service, but also with the workings of the facility and its amenities.  We met Richie Cook as well.  Richie worked with us and helped us plan our evenings.  His knowledge of the restaurants and events surrounding the hotel was great and he gave advice on nighttime activities that we might enjoy.  Such a nice guy. Nicole  and Courtney were both very helpful and spoke to us each time we saw them.  They remembered our names and treated us like family.  Exactly what I expect when staying at a residence for three or more days.
+We tried to stay there an extra night but they were already booked. (I guess everyone loves staying there...My wife and I resided at the Staybridge Suites on BW8 at Kempwood in Houston for three nights.  What luxurious accommodations!  I loved their pressed cotton sheets and soft comforters most of all.  They gave us a choice of pillow types when we requested more.  The kitchen had everything that we needed for our stay and the hotel staff was quick to provide us with extra ice for our room.I want to point out the best part of our stay: The Staff.  From the management down, everyone there was friendly and gracious.  I had the opportunity to meet with Donald, the General Manager, and discussed with him some of the intricacies of the construction of this new hotel.  He was very knowledgeable about not only customer service, but also with the workings of the facility and its amenities.  We met Richie Cook as well.  Richie worked with us and helped us plan our evenings.  His knowledge of the restaurants and events surrounding the hotel was great and he gave advice on nighttime activities that we might enjoy.  Such a nice guy. Nicole  and Courtney were both very helpful and spoke to us each time we saw them.  They remembered our names and treated us like family.  Exactly what I expect when staying at a residence for three or more days.We tried to stay there an extra night but they were already booked. (I guess everyone loves staying there as much as we do!)  We had to stay at a competitors hotel and were not at all impressed.  The competitor hotel had no free breakfast or evening gathering, TV the size of a postage stamp, and listed "amenities" such as in room smoke detectors and fire extinguishers on every floor.  Seriously?We are back in town next week and have already booked a room with these folks that we now consider our home away from home.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r301284262-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -646,6 +981,48 @@
     <t>I was in town for business and decided on the Staybridge.  This is a very nice hotel.  The rooms very clean and very modern.  The have a managers reception Tuesday through Thursday with food and drink.  This is a very nice hotel that I will be sure to stay at in the future.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r279945075-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279945075</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home away from home </t>
+  </si>
+  <si>
+    <t>I came for a week long work trip. Getting to the hotel was a snap. This particular site is almost brand new so it looks great. First experience through the door was a very nice, very clean reception area and a wonderfully pleasant clerk, Melanie I believe, to check us in. Through out the week Melanie and the entire staff were warm and very helpful. The "Great Room " where they do breakfast is well designed with lots of seating. A hot breakfast featuring an egg, meat combo each day with fresh fruit, yogurt and oatmeal. Juice, milk and coffee, toast bagels, giant waffles shaped like Texas, and that's just breakfast. Tuesday-Thursday you'll get dinner too. The rooms are clean, spacious and very well appointed. Sink, cooktop, full sized refrigerator and a dishwasher. A huge TV and in my room at least, a soft comfortable kingsized bed.Besides the FREE wifi being awful in my room, I have nothing bad to say about this hotel. I even came home with a suitcase full of clean clothes thanks to free washers and dryers available on site. I will for sure come back if I'm in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I came for a week long work trip. Getting to the hotel was a snap. This particular site is almost brand new so it looks great. First experience through the door was a very nice, very clean reception area and a wonderfully pleasant clerk, Melanie I believe, to check us in. Through out the week Melanie and the entire staff were warm and very helpful. The "Great Room " where they do breakfast is well designed with lots of seating. A hot breakfast featuring an egg, meat combo each day with fresh fruit, yogurt and oatmeal. Juice, milk and coffee, toast bagels, giant waffles shaped like Texas, and that's just breakfast. Tuesday-Thursday you'll get dinner too. The rooms are clean, spacious and very well appointed. Sink, cooktop, full sized refrigerator and a dishwasher. A huge TV and in my room at least, a soft comfortable kingsized bed.Besides the FREE wifi being awful in my room, I have nothing bad to say about this hotel. I even came home with a suitcase full of clean clothes thanks to free washers and dryers available on site. I will for sure come back if I'm in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r269087288-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269087288</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>WOW! Top Shelf all the way</t>
+  </si>
+  <si>
+    <t>As stated by others this hotel is brand new. The first impression is always important to me and this hotel really impressed me. First staff contact was with a very pleasant, professional young lady named Theresa. We did not have reservations and I wanted to use some of my  rewards points for the stay, she advised I would have to make reservations on line in order to use rewards points and told me to use the computers in the business center to accomplish this, which I did. I walked back to the desk and she immediately recognized my Platinum Elite membership, and thanked me for being a IHG rewards club member. The entire hotel has the best of everything with large spacious suites with everything you could want. 3 nights a week they have an evening social complete with food and wine and beer for the guest enjoyment with a friendly staff including the General Manager Mr. Don making sure everyone felt welcome. This is my new Houston destination which I highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>As stated by others this hotel is brand new. The first impression is always important to me and this hotel really impressed me. First staff contact was with a very pleasant, professional young lady named Theresa. We did not have reservations and I wanted to use some of my  rewards points for the stay, she advised I would have to make reservations on line in order to use rewards points and told me to use the computers in the business center to accomplish this, which I did. I walked back to the desk and she immediately recognized my Platinum Elite membership, and thanked me for being a IHG rewards club member. The entire hotel has the best of everything with large spacious suites with everything you could want. 3 nights a week they have an evening social complete with food and wine and beer for the guest enjoyment with a friendly staff including the General Manager Mr. Don making sure everyone felt welcome. This is my new Houston destination which I highly recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r268380710-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -661,9 +1038,6 @@
     <t>This was an excellent hotel to hold our 25th anniversary meeting. The staff was friendly and went above and beyond the call of duty. The meals were great, the gathering area was perfect for our social hours, and the suites could not have been better.I travel to Houston often, and I can happily say that I have a new home away from home while I am traveling in Houston.</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r263578152-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -698,6 +1072,24 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7175858-r256821201-Staybridge_Suites_Houston_I_10_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256821201</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>STAY HERE!</t>
+  </si>
+  <si>
+    <t>My husband and I travel to Houston often and I am so excited to find this nearly new hotel.  We will be staying here anytime we travel through this area.  Rooms are good sized with a full in room kitchen, upscale linens/towels.  The breakfast was definitely a step above your normal hotel breakfast.  My husband had meetings all morning nearby and the front desk clear happily obliged a late check out.  We didn't utilize the exercise area but it looked like a large enough room with several pieces of equipment.  So, so happy we found this diamond!!!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1624,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1243,20 +1635,16 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1272,54 +1660,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1335,25 +1717,25 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -1372,7 +1754,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1388,41 +1770,43 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -1433,7 +1817,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1449,43 +1833,43 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1496,7 +1880,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1512,46 +1896,44 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1559,7 +1941,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1575,41 +1957,43 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>89</v>
       </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1620,7 +2004,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1636,48 +2020,54 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1693,35 +2083,31 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1731,14 +2117,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X10" t="s">
-        <v>107</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1754,7 +2136,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1763,43 +2145,35 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" t="s">
-        <v>115</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -1815,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1824,49 +2198,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -1882,7 +2246,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1891,34 +2255,32 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1929,7 +2291,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -1945,7 +2307,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1954,30 +2316,32 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
@@ -1990,7 +2354,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -2006,7 +2370,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2015,39 +2379,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -2063,7 +2433,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2072,25 +2442,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2104,7 +2474,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2120,7 +2490,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2129,49 +2499,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>157</v>
-      </c>
-      <c r="X17" t="s">
-        <v>158</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -2187,7 +2547,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2196,43 +2556,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>166</v>
-      </c>
-      <c r="X18" t="s">
-        <v>167</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
@@ -2248,7 +2608,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2257,25 +2617,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2286,14 +2646,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>175</v>
-      </c>
-      <c r="X19" t="s">
-        <v>176</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
@@ -2309,7 +2665,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2318,22 +2674,26 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>161</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2344,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -2366,7 +2726,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2375,25 +2735,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2404,14 +2764,10 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>192</v>
-      </c>
-      <c r="X21" t="s">
-        <v>193</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -2427,7 +2783,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2436,39 +2792,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -2484,7 +2844,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2493,39 +2853,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
@@ -2541,7 +2905,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2550,39 +2914,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>192</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25">
@@ -2598,7 +2972,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2607,32 +2981,34 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -2643,7 +3019,1262 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
         <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L31" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>235</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>229</v>
+      </c>
+      <c r="O32" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>247</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>248</v>
+      </c>
+      <c r="X33" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>257</v>
+      </c>
+      <c r="X34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>161</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>266</v>
+      </c>
+      <c r="X35" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>282</v>
+      </c>
+      <c r="X37" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>290</v>
+      </c>
+      <c r="X38" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>247</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>299</v>
+      </c>
+      <c r="X39" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s">
+        <v>311</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>312</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>161</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>319</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>161</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>337</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63687</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>342</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
